--- a/spec/fixtures/fails_required_headers.xlsx
+++ b/spec/fixtures/fails_required_headers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/xlsx_to_pqc_xml/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F912E6-10DD-2640-80F1-3F4CAF4E11CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE0EBD0-CBDC-0C4B-ADA9-34377836887D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ARK ID</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>ILL ENTRY</t>
-  </si>
-  <si>
-    <t>NOTES</t>
   </si>
   <si>
     <t>0001.tif</t>
@@ -444,7 +441,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,118 +465,116 @@
         <v>3</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
